--- a/aiswre/data/reqs_df_evaluation.xlsx
+++ b/aiswre/data/reqs_df_evaluation.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d350839dcbf84db5/Desktop/github_projects/venv_aiswre/aiswre/aiswre/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_0309E1E5B43B4C1E492C4C91256D1FC1787E8557" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FEF9647-47F9-41BE-9F93-C79C9CA338EB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$978</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3051,8 +3060,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3115,13 +3124,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3159,7 +3176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3193,6 +3210,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3227,9 +3245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3402,14 +3421,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I518" sqref="I518"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3464,7 +3486,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3493,7 +3515,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3522,7 +3544,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3551,7 +3573,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3580,7 +3602,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3609,7 +3631,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3638,7 +3660,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3667,7 +3689,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3696,7 +3718,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3725,7 +3747,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3754,7 +3776,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3783,7 +3805,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3812,7 +3834,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3841,7 +3863,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3870,7 +3892,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3899,7 +3921,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3928,7 +3950,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3957,7 +3979,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3986,7 +4008,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4015,7 +4037,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4044,7 +4066,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4073,7 +4095,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4102,7 +4124,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4131,7 +4153,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4160,7 +4182,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4189,7 +4211,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4218,7 +4240,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4247,7 +4269,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4276,7 +4298,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4305,7 +4327,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4334,7 +4356,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4363,7 +4385,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4392,7 +4414,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4421,7 +4443,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4450,7 +4472,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4479,7 +4501,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4508,7 +4530,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4537,7 +4559,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4566,7 +4588,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4595,7 +4617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4624,7 +4646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4653,7 +4675,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4682,7 +4704,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4711,7 +4733,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4740,7 +4762,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4769,7 +4791,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4798,7 +4820,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4827,7 +4849,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4856,7 +4878,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4885,7 +4907,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4914,7 +4936,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4943,7 +4965,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4972,7 +4994,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5001,7 +5023,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5030,7 +5052,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5059,7 +5081,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5088,7 +5110,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5117,7 +5139,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5146,7 +5168,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5175,7 +5197,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5233,7 +5255,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5262,7 +5284,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5291,7 +5313,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5320,7 +5342,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5349,7 +5371,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5378,7 +5400,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5407,7 +5429,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5436,7 +5458,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5465,7 +5487,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5494,7 +5516,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5523,7 +5545,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5552,7 +5574,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5581,7 +5603,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5610,7 +5632,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5639,7 +5661,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5668,7 +5690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5697,7 +5719,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5726,7 +5748,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5755,7 +5777,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5784,7 +5806,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5813,7 +5835,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5842,7 +5864,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5871,7 +5893,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5900,7 +5922,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5929,7 +5951,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5958,7 +5980,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5987,7 +6009,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6016,7 +6038,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6045,7 +6067,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6074,7 +6096,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6103,7 +6125,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6132,7 +6154,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6161,7 +6183,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6190,7 +6212,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6219,7 +6241,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6248,7 +6270,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6277,7 +6299,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6306,7 +6328,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6335,7 +6357,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6364,7 +6386,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6393,7 +6415,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6422,7 +6444,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6451,7 +6473,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6480,7 +6502,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6509,7 +6531,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6538,7 +6560,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6567,7 +6589,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6596,7 +6618,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6625,7 +6647,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6654,7 +6676,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6683,7 +6705,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6712,7 +6734,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6741,7 +6763,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6770,7 +6792,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6799,7 +6821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6828,7 +6850,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6857,7 +6879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6886,7 +6908,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6915,7 +6937,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6944,7 +6966,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6973,7 +6995,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7002,7 +7024,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7031,7 +7053,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7060,7 +7082,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7089,7 +7111,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7118,7 +7140,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7147,7 +7169,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7176,7 +7198,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7205,7 +7227,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7234,7 +7256,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7263,7 +7285,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7292,7 +7314,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7321,7 +7343,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7350,7 +7372,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7379,7 +7401,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7408,7 +7430,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7437,7 +7459,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7466,7 +7488,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7495,7 +7517,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7524,7 +7546,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7553,7 +7575,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7582,7 +7604,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7611,7 +7633,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7640,7 +7662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7669,7 +7691,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7698,7 +7720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7727,7 +7749,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7756,7 +7778,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7785,7 +7807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7814,7 +7836,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7843,7 +7865,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7872,7 +7894,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7901,7 +7923,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7930,7 +7952,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7959,7 +7981,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7988,7 +8010,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8017,7 +8039,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8046,7 +8068,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8075,7 +8097,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8104,7 +8126,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8133,7 +8155,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8162,7 +8184,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8191,7 +8213,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8220,7 +8242,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8249,7 +8271,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8278,7 +8300,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8307,7 +8329,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8336,7 +8358,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8365,7 +8387,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8394,7 +8416,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8423,7 +8445,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8452,7 +8474,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8481,7 +8503,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8510,7 +8532,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8539,7 +8561,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8568,7 +8590,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8597,7 +8619,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8626,7 +8648,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8655,7 +8677,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8684,7 +8706,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8713,7 +8735,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8742,7 +8764,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8771,7 +8793,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8829,7 +8851,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8858,7 +8880,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8887,7 +8909,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8916,7 +8938,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8945,7 +8967,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8974,7 +8996,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9003,7 +9025,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9032,7 +9054,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9061,7 +9083,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9090,7 +9112,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9119,7 +9141,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9148,7 +9170,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9177,7 +9199,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9206,7 +9228,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9235,7 +9257,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9264,7 +9286,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9293,7 +9315,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9322,7 +9344,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9351,7 +9373,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9380,7 +9402,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9409,7 +9431,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9438,7 +9460,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9467,7 +9489,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9496,7 +9518,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9525,7 +9547,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9554,7 +9576,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9583,7 +9605,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9612,7 +9634,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9641,7 +9663,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9670,7 +9692,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9699,7 +9721,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9728,7 +9750,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9757,7 +9779,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9786,7 +9808,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9815,7 +9837,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9844,7 +9866,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9873,7 +9895,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9902,7 +9924,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9931,7 +9953,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9960,7 +9982,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9989,7 +10011,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10018,7 +10040,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10047,7 +10069,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10076,7 +10098,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10105,7 +10127,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10134,7 +10156,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10163,7 +10185,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10192,7 +10214,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10221,7 +10243,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10250,7 +10272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10279,7 +10301,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10308,7 +10330,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10337,7 +10359,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10366,7 +10388,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10395,7 +10417,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10424,7 +10446,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10453,7 +10475,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10482,7 +10504,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10511,7 +10533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10540,7 +10562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10569,7 +10591,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10598,7 +10620,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10627,7 +10649,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10656,7 +10678,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10685,7 +10707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10714,7 +10736,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10743,7 +10765,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10772,7 +10794,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10801,7 +10823,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10830,7 +10852,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -10859,7 +10881,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -10888,7 +10910,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10917,7 +10939,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -10946,7 +10968,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -10975,7 +10997,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11004,7 +11026,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11033,7 +11055,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11062,7 +11084,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11091,7 +11113,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11120,7 +11142,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11149,7 +11171,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11178,7 +11200,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11207,7 +11229,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11236,7 +11258,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11265,7 +11287,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11294,7 +11316,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11323,7 +11345,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11352,7 +11374,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11381,7 +11403,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11410,7 +11432,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11439,7 +11461,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11468,7 +11490,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11497,7 +11519,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11526,7 +11548,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11555,7 +11577,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -11584,7 +11606,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -11613,7 +11635,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -11642,7 +11664,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -11671,7 +11693,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -11700,7 +11722,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11729,7 +11751,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -11758,7 +11780,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -11787,7 +11809,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -11816,7 +11838,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -11845,7 +11867,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -11874,7 +11896,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -11903,7 +11925,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -11932,7 +11954,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11961,7 +11983,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -11990,7 +12012,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -12019,7 +12041,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -12048,7 +12070,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -12077,7 +12099,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -12106,7 +12128,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -12135,7 +12157,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -12164,7 +12186,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -12193,7 +12215,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -12222,7 +12244,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -12251,7 +12273,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -12280,7 +12302,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -12309,7 +12331,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -12338,7 +12360,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -12367,7 +12389,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -12396,7 +12418,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -12425,7 +12447,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -12454,7 +12476,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -12483,7 +12505,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -12512,7 +12534,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -12541,7 +12563,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -12570,7 +12592,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -12599,7 +12621,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -12628,7 +12650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -12657,7 +12679,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -12686,7 +12708,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -12715,7 +12737,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -12744,7 +12766,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -12773,7 +12795,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -12802,7 +12824,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -12831,7 +12853,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -12860,7 +12882,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -12889,7 +12911,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -12918,7 +12940,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -12947,7 +12969,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -12976,7 +12998,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -13005,7 +13027,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -13034,7 +13056,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -13063,7 +13085,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -13092,7 +13114,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -13121,7 +13143,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -13150,7 +13172,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -13179,7 +13201,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -13208,7 +13230,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -13237,7 +13259,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -13266,7 +13288,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -13295,7 +13317,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -13324,7 +13346,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -13353,7 +13375,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -13382,7 +13404,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -13411,7 +13433,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -13440,7 +13462,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -13469,7 +13491,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -13498,7 +13520,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -13527,7 +13549,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -13556,7 +13578,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -13585,7 +13607,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -13614,7 +13636,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -13643,7 +13665,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -13672,7 +13694,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -13701,7 +13723,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -13730,7 +13752,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -13759,7 +13781,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -13788,7 +13810,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -13817,7 +13839,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -13846,7 +13868,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -13875,7 +13897,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -13904,7 +13926,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -13933,7 +13955,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -13962,7 +13984,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -13991,7 +14013,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -14020,7 +14042,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -14049,7 +14071,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -14078,7 +14100,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -14107,7 +14129,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -14136,7 +14158,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -14165,7 +14187,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -14194,7 +14216,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -14223,7 +14245,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -14252,7 +14274,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -14281,7 +14303,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -14310,7 +14332,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -14339,7 +14361,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -14368,7 +14390,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -14397,7 +14419,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -14426,7 +14448,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -14455,7 +14477,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -14484,7 +14506,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -14513,7 +14535,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -14542,7 +14564,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -14571,7 +14593,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -14600,7 +14622,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -14629,7 +14651,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -14658,7 +14680,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -14687,7 +14709,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -14716,7 +14738,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -14745,7 +14767,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -14774,7 +14796,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -14803,7 +14825,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -14832,7 +14854,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -14861,7 +14883,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -14890,7 +14912,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -14919,7 +14941,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -14948,7 +14970,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -14977,7 +14999,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -15006,7 +15028,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -15035,7 +15057,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -15064,7 +15086,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -15093,7 +15115,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -15122,7 +15144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -15151,7 +15173,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -15180,7 +15202,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -15209,7 +15231,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -15238,7 +15260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15267,7 +15289,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15296,7 +15318,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15325,7 +15347,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15354,7 +15376,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15383,7 +15405,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15412,7 +15434,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -15441,7 +15463,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15470,7 +15492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15499,7 +15521,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15528,7 +15550,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15557,7 +15579,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15586,7 +15608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15615,7 +15637,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -15644,7 +15666,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -15673,7 +15695,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -15702,7 +15724,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -15731,7 +15753,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -15760,7 +15782,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -15789,7 +15811,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -15818,7 +15840,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -15847,7 +15869,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -15876,7 +15898,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -15905,7 +15927,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -15934,7 +15956,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -15963,7 +15985,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -15992,7 +16014,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -16021,7 +16043,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -16050,7 +16072,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16079,7 +16101,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16108,7 +16130,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16137,7 +16159,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16166,7 +16188,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16195,7 +16217,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16224,7 +16246,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16253,7 +16275,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16282,7 +16304,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16311,7 +16333,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16340,7 +16362,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16369,7 +16391,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16398,7 +16420,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16427,7 +16449,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16456,7 +16478,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16485,7 +16507,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16514,7 +16536,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16543,7 +16565,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16572,7 +16594,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -16601,7 +16623,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -16630,7 +16652,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -16659,7 +16681,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -16688,7 +16710,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -16717,7 +16739,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -16746,7 +16768,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -16775,7 +16797,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -16804,7 +16826,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -16833,7 +16855,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -16862,7 +16884,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -16891,7 +16913,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -16920,7 +16942,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -16949,7 +16971,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -16978,7 +17000,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17007,7 +17029,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17036,7 +17058,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17065,7 +17087,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17094,7 +17116,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17123,7 +17145,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17152,7 +17174,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17181,7 +17203,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17210,7 +17232,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17239,7 +17261,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17268,7 +17290,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17297,7 +17319,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17326,7 +17348,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17355,7 +17377,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17384,7 +17406,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17413,7 +17435,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17442,7 +17464,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17471,7 +17493,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17500,7 +17522,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17529,7 +17551,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17558,7 +17580,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17587,7 +17609,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17616,7 +17638,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17645,7 +17667,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17674,7 +17696,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17703,7 +17725,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -17732,7 +17754,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -17761,7 +17783,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -17790,7 +17812,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -17819,7 +17841,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -17848,7 +17870,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -17877,7 +17899,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -17906,7 +17928,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -17935,7 +17957,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -17964,7 +17986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -17993,7 +18015,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18022,7 +18044,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18051,7 +18073,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18080,7 +18102,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18109,7 +18131,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18138,7 +18160,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18167,7 +18189,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18196,7 +18218,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -18225,7 +18247,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -18254,7 +18276,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -18283,7 +18305,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -18312,7 +18334,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -18341,7 +18363,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -18370,7 +18392,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -18399,7 +18421,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -18428,7 +18450,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -18457,7 +18479,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="520" spans="1:9">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -18486,7 +18508,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -18515,7 +18537,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -18544,7 +18566,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -18573,7 +18595,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -18602,7 +18624,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -18631,7 +18653,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -18660,7 +18682,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -18689,7 +18711,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -18718,7 +18740,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -18747,7 +18769,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -18776,7 +18798,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -18805,7 +18827,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -18834,7 +18856,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -18863,7 +18885,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -18892,7 +18914,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -18921,7 +18943,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -18950,7 +18972,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -18979,7 +19001,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -19008,7 +19030,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -19037,7 +19059,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -19066,7 +19088,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="541" spans="1:9">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -19095,7 +19117,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="542" spans="1:9">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -19124,7 +19146,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="543" spans="1:9">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -19153,7 +19175,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="544" spans="1:9">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -19182,7 +19204,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -19211,7 +19233,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="546" spans="1:9">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -19240,7 +19262,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="547" spans="1:9">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -19269,7 +19291,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="548" spans="1:9">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -19298,7 +19320,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -19327,7 +19349,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="550" spans="1:9">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -19356,7 +19378,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="551" spans="1:9">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -19385,7 +19407,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="552" spans="1:9">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -19414,7 +19436,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="553" spans="1:9">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -19443,7 +19465,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="554" spans="1:9">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -19472,7 +19494,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="555" spans="1:9">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -19501,7 +19523,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="556" spans="1:9">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -19530,7 +19552,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="557" spans="1:9">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -19559,7 +19581,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -19588,7 +19610,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="559" spans="1:9">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -19617,7 +19639,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="560" spans="1:9">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -19646,7 +19668,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -19675,7 +19697,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -19704,7 +19726,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -19733,7 +19755,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -19762,7 +19784,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="565" spans="1:9">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -19791,7 +19813,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="566" spans="1:9">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -19820,7 +19842,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="567" spans="1:9">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -19849,7 +19871,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="568" spans="1:9">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -19878,7 +19900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="569" spans="1:9">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -19907,7 +19929,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -19936,7 +19958,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="571" spans="1:9">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -19965,7 +19987,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="572" spans="1:9">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -19994,7 +20016,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -20023,7 +20045,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="574" spans="1:9">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -20052,7 +20074,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="575" spans="1:9">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -20081,7 +20103,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="576" spans="1:9">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -20110,7 +20132,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="577" spans="1:9">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -20139,7 +20161,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="578" spans="1:9">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -20168,7 +20190,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -20197,7 +20219,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="580" spans="1:9">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -20226,7 +20248,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="581" spans="1:9">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -20255,7 +20277,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="582" spans="1:9">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -20284,7 +20306,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="583" spans="1:9">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -20313,7 +20335,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="584" spans="1:9">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -20342,7 +20364,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="585" spans="1:9">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -20371,7 +20393,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -20400,7 +20422,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="587" spans="1:9">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -20429,7 +20451,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="588" spans="1:9">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -20458,7 +20480,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="589" spans="1:9">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -20487,7 +20509,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="590" spans="1:9">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -20516,7 +20538,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="591" spans="1:9">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -20545,7 +20567,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="592" spans="1:9">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -20574,7 +20596,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -20603,7 +20625,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="594" spans="1:9">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -20632,7 +20654,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="595" spans="1:9">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -20661,7 +20683,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="596" spans="1:9">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -20690,7 +20712,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="597" spans="1:9">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -20719,7 +20741,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="598" spans="1:9">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -20748,7 +20770,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="599" spans="1:9">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -20777,7 +20799,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="600" spans="1:9">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -20806,7 +20828,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="601" spans="1:9">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -20835,7 +20857,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="602" spans="1:9">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -20864,7 +20886,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="603" spans="1:9">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -20893,7 +20915,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="604" spans="1:9">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -20922,7 +20944,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="605" spans="1:9">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -20951,7 +20973,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="606" spans="1:9">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -20980,7 +21002,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="607" spans="1:9">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -21009,7 +21031,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -21038,7 +21060,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -21067,7 +21089,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -21096,7 +21118,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -21125,7 +21147,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -21154,7 +21176,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -21183,7 +21205,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -21212,7 +21234,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -21241,7 +21263,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="616" spans="1:9">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -21270,7 +21292,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="617" spans="1:9">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -21299,7 +21321,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="618" spans="1:9">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -21328,7 +21350,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="619" spans="1:9">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -21357,7 +21379,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -21386,7 +21408,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -21415,7 +21437,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -21444,7 +21466,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -21473,7 +21495,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -21502,7 +21524,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -21531,7 +21553,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -21560,7 +21582,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -21589,7 +21611,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -21618,7 +21640,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -21647,7 +21669,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -21676,7 +21698,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -21705,7 +21727,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -21734,7 +21756,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -21763,7 +21785,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -21792,7 +21814,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -21821,7 +21843,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -21850,7 +21872,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -21879,7 +21901,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -21908,7 +21930,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -21937,7 +21959,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -21966,7 +21988,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -21995,7 +22017,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -22024,7 +22046,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -22053,7 +22075,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -22082,7 +22104,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -22111,7 +22133,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -22140,7 +22162,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -22169,7 +22191,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -22198,7 +22220,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -22227,7 +22249,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -22256,7 +22278,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -22285,7 +22307,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -22314,7 +22336,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -22343,7 +22365,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -22372,7 +22394,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -22401,7 +22423,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -22430,7 +22452,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -22459,7 +22481,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -22488,7 +22510,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -22517,7 +22539,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -22546,7 +22568,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -22575,7 +22597,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -22604,7 +22626,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -22633,7 +22655,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -22662,7 +22684,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -22691,7 +22713,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -22720,7 +22742,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -22749,7 +22771,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -22778,7 +22800,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -22807,7 +22829,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -22836,7 +22858,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -22865,7 +22887,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -22894,7 +22916,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="673" spans="1:9">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -22923,7 +22945,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -22952,7 +22974,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="675" spans="1:9">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -22981,7 +23003,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="676" spans="1:9">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -23010,7 +23032,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="677" spans="1:9">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -23039,7 +23061,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="678" spans="1:9">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -23068,7 +23090,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="679" spans="1:9">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -23097,7 +23119,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="680" spans="1:9">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -23126,7 +23148,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="681" spans="1:9">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -23155,7 +23177,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="682" spans="1:9">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -23184,7 +23206,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="683" spans="1:9">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -23213,7 +23235,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="684" spans="1:9">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -23242,7 +23264,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -23271,7 +23293,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="686" spans="1:9">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -23300,7 +23322,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="687" spans="1:9">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -23329,7 +23351,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="688" spans="1:9">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -23358,7 +23380,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="689" spans="1:9">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -23387,7 +23409,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="690" spans="1:9">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -23416,7 +23438,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="691" spans="1:9">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -23445,7 +23467,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="692" spans="1:9">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -23474,7 +23496,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="693" spans="1:9">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -23503,7 +23525,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="694" spans="1:9">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -23532,7 +23554,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="695" spans="1:9">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -23561,7 +23583,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="696" spans="1:9">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -23590,7 +23612,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="697" spans="1:9">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -23619,7 +23641,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="698" spans="1:9">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -23648,7 +23670,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -23677,7 +23699,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="700" spans="1:9">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -23706,7 +23728,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="701" spans="1:9">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -23735,7 +23757,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="702" spans="1:9">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -23764,7 +23786,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="703" spans="1:9">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -23793,7 +23815,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="704" spans="1:9">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -23822,7 +23844,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -23851,7 +23873,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -23880,7 +23902,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -23909,7 +23931,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="708" spans="1:9">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -23938,7 +23960,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="709" spans="1:9">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -23967,7 +23989,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="710" spans="1:9">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -23996,7 +24018,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -24025,7 +24047,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="712" spans="1:9">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -24054,7 +24076,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="713" spans="1:9">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -24083,7 +24105,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="714" spans="1:9">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -24112,7 +24134,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="715" spans="1:9">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -24141,7 +24163,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="716" spans="1:9">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -24170,7 +24192,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="717" spans="1:9">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -24199,7 +24221,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="718" spans="1:9">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -24228,7 +24250,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="719" spans="1:9">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -24257,7 +24279,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="720" spans="1:9">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -24286,7 +24308,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -24315,7 +24337,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -24344,7 +24366,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -24373,7 +24395,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -24402,7 +24424,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -24431,7 +24453,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -24460,7 +24482,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -24489,7 +24511,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -24518,7 +24540,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -24547,7 +24569,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="730" spans="1:9">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -24576,7 +24598,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -24605,7 +24627,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -24634,7 +24656,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -24663,7 +24685,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -24692,7 +24714,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -24721,7 +24743,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -24750,7 +24772,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="737" spans="1:9">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -24779,7 +24801,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="738" spans="1:9">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -24808,7 +24830,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="739" spans="1:9">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -24837,7 +24859,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -24866,7 +24888,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="741" spans="1:9">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -24895,7 +24917,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="742" spans="1:9">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -24924,7 +24946,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="743" spans="1:9">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -24953,7 +24975,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -24982,7 +25004,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="745" spans="1:9">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -25011,7 +25033,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -25040,7 +25062,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="747" spans="1:9">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -25069,7 +25091,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -25098,7 +25120,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="749" spans="1:9">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -25127,7 +25149,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -25156,7 +25178,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="751" spans="1:9">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -25185,7 +25207,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="752" spans="1:9">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -25214,7 +25236,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -25243,7 +25265,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -25272,7 +25294,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -25301,7 +25323,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="756" spans="1:9">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -25330,7 +25352,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -25359,7 +25381,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="758" spans="1:9">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -25388,7 +25410,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -25417,7 +25439,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -25446,7 +25468,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -25475,7 +25497,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -25504,7 +25526,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -25533,7 +25555,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -25562,7 +25584,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -25591,7 +25613,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -25620,7 +25642,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -25649,7 +25671,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -25678,7 +25700,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="769" spans="1:9">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -25707,7 +25729,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -25736,7 +25758,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="771" spans="1:9">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -25765,7 +25787,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="772" spans="1:9">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -25794,7 +25816,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -25823,7 +25845,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="774" spans="1:9">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -25852,7 +25874,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="775" spans="1:9">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -25881,7 +25903,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -25910,7 +25932,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="777" spans="1:9">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -25939,7 +25961,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="778" spans="1:9">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -25968,7 +25990,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="779" spans="1:9">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -25997,7 +26019,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -26026,7 +26048,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="781" spans="1:9">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -26055,7 +26077,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="782" spans="1:9">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -26084,7 +26106,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="783" spans="1:9">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -26113,7 +26135,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="784" spans="1:9">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -26142,7 +26164,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="785" spans="1:9">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -26171,7 +26193,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -26200,7 +26222,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="787" spans="1:9">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -26229,7 +26251,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="788" spans="1:9">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -26258,7 +26280,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -26287,7 +26309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="790" spans="1:9">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -26316,7 +26338,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="791" spans="1:9">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -26345,7 +26367,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -26374,7 +26396,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="793" spans="1:9">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -26403,7 +26425,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="794" spans="1:9">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -26432,7 +26454,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="795" spans="1:9">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -26461,7 +26483,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="796" spans="1:9">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -26490,7 +26512,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="797" spans="1:9">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -26519,7 +26541,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="798" spans="1:9">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -26548,7 +26570,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="799" spans="1:9">
+    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -26577,7 +26599,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="800" spans="1:9">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -26606,7 +26628,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="801" spans="1:9">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -26635,7 +26657,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="802" spans="1:9">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -26664,7 +26686,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -26693,7 +26715,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="804" spans="1:9">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -26722,7 +26744,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="805" spans="1:9">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -26751,7 +26773,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="806" spans="1:9">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -26780,7 +26802,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="807" spans="1:9">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -26809,7 +26831,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="808" spans="1:9">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -26838,7 +26860,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="809" spans="1:9">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -26867,7 +26889,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="810" spans="1:9">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -26896,7 +26918,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="811" spans="1:9">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -26925,7 +26947,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="812" spans="1:9">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -26954,7 +26976,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="813" spans="1:9">
+    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -26983,7 +27005,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="814" spans="1:9">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -27012,7 +27034,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="815" spans="1:9">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -27041,7 +27063,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="816" spans="1:9">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -27070,7 +27092,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -27099,7 +27121,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -27128,7 +27150,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="819" spans="1:9">
+    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -27157,7 +27179,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="820" spans="1:9">
+    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -27186,7 +27208,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -27215,7 +27237,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -27244,7 +27266,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="823" spans="1:9">
+    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -27273,7 +27295,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="824" spans="1:9">
+    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -27302,7 +27324,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -27331,7 +27353,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="826" spans="1:9">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -27360,7 +27382,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -27389,7 +27411,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -27418,7 +27440,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="829" spans="1:9">
+    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -27447,7 +27469,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -27476,7 +27498,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -27505,7 +27527,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -27534,7 +27556,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="833" spans="1:9">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -27563,7 +27585,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="834" spans="1:9">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -27592,7 +27614,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="835" spans="1:9">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -27621,7 +27643,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="836" spans="1:9">
+    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -27650,7 +27672,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="837" spans="1:9">
+    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -27679,7 +27701,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="838" spans="1:9">
+    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -27708,7 +27730,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="839" spans="1:9">
+    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -27737,7 +27759,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="840" spans="1:9">
+    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -27766,7 +27788,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="841" spans="1:9">
+    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -27795,7 +27817,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="842" spans="1:9">
+    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -27824,7 +27846,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="843" spans="1:9">
+    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -27853,7 +27875,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="844" spans="1:9">
+    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -27882,7 +27904,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="845" spans="1:9">
+    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -27911,7 +27933,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="846" spans="1:9">
+    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -27940,7 +27962,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="847" spans="1:9">
+    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -27969,7 +27991,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="848" spans="1:9">
+    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -27998,7 +28020,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="849" spans="1:9">
+    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -28027,7 +28049,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="850" spans="1:9">
+    <row r="850" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -28056,7 +28078,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="851" spans="1:9">
+    <row r="851" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -28085,7 +28107,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="852" spans="1:9">
+    <row r="852" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -28114,7 +28136,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="853" spans="1:9">
+    <row r="853" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -28143,7 +28165,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="854" spans="1:9">
+    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -28172,7 +28194,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="855" spans="1:9">
+    <row r="855" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -28201,7 +28223,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="856" spans="1:9">
+    <row r="856" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -28230,7 +28252,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="857" spans="1:9">
+    <row r="857" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -28259,7 +28281,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="858" spans="1:9">
+    <row r="858" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -28288,7 +28310,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="859" spans="1:9">
+    <row r="859" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -28317,7 +28339,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="860" spans="1:9">
+    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -28346,7 +28368,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="861" spans="1:9">
+    <row r="861" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -28375,7 +28397,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="862" spans="1:9">
+    <row r="862" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -28404,7 +28426,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="863" spans="1:9">
+    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -28433,7 +28455,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="864" spans="1:9">
+    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -28462,7 +28484,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="865" spans="1:9">
+    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -28491,7 +28513,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="866" spans="1:9">
+    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -28520,7 +28542,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="867" spans="1:9">
+    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -28549,7 +28571,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="868" spans="1:9">
+    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -28578,7 +28600,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="869" spans="1:9">
+    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -28607,7 +28629,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="870" spans="1:9">
+    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -28636,7 +28658,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="871" spans="1:9">
+    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -28665,7 +28687,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="872" spans="1:9">
+    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -28694,7 +28716,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -28723,7 +28745,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="874" spans="1:9">
+    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -28752,7 +28774,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="875" spans="1:9">
+    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -28781,7 +28803,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="876" spans="1:9">
+    <row r="876" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -28810,7 +28832,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="877" spans="1:9">
+    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -28839,7 +28861,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="878" spans="1:9">
+    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -28868,7 +28890,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="879" spans="1:9">
+    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -28897,7 +28919,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="880" spans="1:9">
+    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -28926,7 +28948,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="881" spans="1:9">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -28955,7 +28977,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="882" spans="1:9">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -28984,7 +29006,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="883" spans="1:9">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -29013,7 +29035,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="884" spans="1:9">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -29042,7 +29064,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="885" spans="1:9">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -29071,7 +29093,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="886" spans="1:9">
+    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -29100,7 +29122,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="887" spans="1:9">
+    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -29129,7 +29151,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="888" spans="1:9">
+    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -29158,7 +29180,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="889" spans="1:9">
+    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -29187,7 +29209,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="890" spans="1:9">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -29216,7 +29238,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="891" spans="1:9">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -29245,7 +29267,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="892" spans="1:9">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -29274,7 +29296,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="893" spans="1:9">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -29303,7 +29325,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="894" spans="1:9">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -29332,7 +29354,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="895" spans="1:9">
+    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -29361,7 +29383,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="896" spans="1:9">
+    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -29390,7 +29412,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="897" spans="1:9">
+    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -29419,7 +29441,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="898" spans="1:9">
+    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -29448,7 +29470,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="899" spans="1:9">
+    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -29477,7 +29499,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="900" spans="1:9">
+    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -29506,7 +29528,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="901" spans="1:9">
+    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -29535,7 +29557,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="902" spans="1:9">
+    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -29564,7 +29586,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="903" spans="1:9">
+    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -29593,7 +29615,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="904" spans="1:9">
+    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -29622,7 +29644,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="905" spans="1:9">
+    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -29651,7 +29673,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="906" spans="1:9">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -29680,7 +29702,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="907" spans="1:9">
+    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -29709,7 +29731,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="908" spans="1:9">
+    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -29738,7 +29760,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="909" spans="1:9">
+    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -29767,7 +29789,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="910" spans="1:9">
+    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -29796,7 +29818,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="911" spans="1:9">
+    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>909</v>
       </c>
@@ -29825,7 +29847,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="912" spans="1:9">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -29854,7 +29876,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="913" spans="1:9">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -29883,7 +29905,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="914" spans="1:9">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -29912,7 +29934,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="915" spans="1:9">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>913</v>
       </c>
@@ -29941,7 +29963,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:9">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -29970,7 +29992,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="917" spans="1:9">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -29999,7 +30021,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="918" spans="1:9">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -30028,7 +30050,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="919" spans="1:9">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -30057,7 +30079,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="920" spans="1:9">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>918</v>
       </c>
@@ -30086,7 +30108,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="921" spans="1:9">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -30115,7 +30137,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="922" spans="1:9">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -30144,7 +30166,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="923" spans="1:9">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -30173,7 +30195,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="924" spans="1:9">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -30202,7 +30224,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="925" spans="1:9">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -30231,7 +30253,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="926" spans="1:9">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -30260,7 +30282,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="927" spans="1:9">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -30289,7 +30311,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="928" spans="1:9">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -30318,7 +30340,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="929" spans="1:9">
+    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -30347,7 +30369,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="930" spans="1:9">
+    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -30376,7 +30398,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="931" spans="1:9">
+    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -30405,7 +30427,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="932" spans="1:9">
+    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -30434,7 +30456,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="933" spans="1:9">
+    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -30463,7 +30485,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="934" spans="1:9">
+    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -30492,7 +30514,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="935" spans="1:9">
+    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -30521,7 +30543,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="936" spans="1:9">
+    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -30550,7 +30572,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="937" spans="1:9">
+    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -30579,7 +30601,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="938" spans="1:9">
+    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -30608,7 +30630,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="939" spans="1:9">
+    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -30637,7 +30659,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="940" spans="1:9">
+    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -30666,7 +30688,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="941" spans="1:9">
+    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -30695,7 +30717,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="942" spans="1:9">
+    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -30724,7 +30746,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="943" spans="1:9">
+    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -30753,7 +30775,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="944" spans="1:9">
+    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -30782,7 +30804,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="945" spans="1:9">
+    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -30811,7 +30833,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="946" spans="1:9">
+    <row r="946" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -30840,7 +30862,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="947" spans="1:9">
+    <row r="947" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -30869,7 +30891,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="948" spans="1:9">
+    <row r="948" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -30898,7 +30920,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="949" spans="1:9">
+    <row r="949" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -30927,7 +30949,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="950" spans="1:9">
+    <row r="950" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>948</v>
       </c>
@@ -30956,7 +30978,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="951" spans="1:9">
+    <row r="951" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -30985,7 +31007,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="952" spans="1:9">
+    <row r="952" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -31014,7 +31036,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="953" spans="1:9">
+    <row r="953" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -31043,7 +31065,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="954" spans="1:9">
+    <row r="954" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -31072,7 +31094,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="955" spans="1:9">
+    <row r="955" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -31101,7 +31123,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="956" spans="1:9">
+    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -31130,7 +31152,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="957" spans="1:9">
+    <row r="957" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>955</v>
       </c>
@@ -31159,7 +31181,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="958" spans="1:9">
+    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -31188,7 +31210,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="959" spans="1:9">
+    <row r="959" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>957</v>
       </c>
@@ -31217,7 +31239,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="960" spans="1:9">
+    <row r="960" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>958</v>
       </c>
@@ -31246,7 +31268,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>959</v>
       </c>
@@ -31275,7 +31297,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>960</v>
       </c>
@@ -31304,7 +31326,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>961</v>
       </c>
@@ -31333,7 +31355,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>962</v>
       </c>
@@ -31362,7 +31384,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>963</v>
       </c>
@@ -31391,7 +31413,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>964</v>
       </c>
@@ -31420,7 +31442,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>965</v>
       </c>
@@ -31449,7 +31471,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>966</v>
       </c>
@@ -31478,7 +31500,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>967</v>
       </c>
@@ -31507,7 +31529,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A970" s="1">
         <v>968</v>
       </c>
@@ -31536,7 +31558,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A971" s="1">
         <v>969</v>
       </c>
@@ -31565,7 +31587,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A972" s="1">
         <v>970</v>
       </c>
@@ -31594,7 +31616,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A973" s="1">
         <v>971</v>
       </c>
@@ -31623,7 +31645,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -31652,7 +31674,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A975" s="1">
         <v>973</v>
       </c>
@@ -31681,7 +31703,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -31710,7 +31732,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -31739,7 +31761,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A978" s="1">
         <v>976</v>
       </c>
@@ -31769,6 +31791,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I978" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="[]"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>